--- a/questionarios.xlsx
+++ b/questionarios.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Ambiente de Trabalho\Aplicações Informáticas\Trabalho de Grupo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Pais\Desktop\kahoot-python-Api\kahoot-python-ApI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560320B-FF73-45BE-BDA8-F24E5EED2C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0391FA1-92E4-4C49-B5CE-F624B2126834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="banana" sheetId="1" r:id="rId1"/>
     <sheet name="one piece" sheetId="2" r:id="rId2"/>
-    <sheet name="pao" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>a banana é amarela</t>
   </si>
@@ -106,15 +105,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>adadadad</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -436,9 +426,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,13 +465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -489,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -497,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -517,7 +505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -537,7 +525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -555,47 +543,6 @@
       </c>
       <c r="F6" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/questionarios.xlsx
+++ b/questionarios.xlsx
@@ -1,128 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Pais\Desktop\kahoot-python-Api\kahoot-python-ApI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0391FA1-92E4-4C49-B5CE-F624B2126834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="banana" sheetId="1" r:id="rId1"/>
-    <sheet name="one piece" sheetId="2" r:id="rId2"/>
+    <sheet name="banana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="one piece" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="teste" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="anime" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>a banana é amarela</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>de que cor é a banana</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>roxa</t>
-  </si>
-  <si>
-    <t>azul</t>
-  </si>
-  <si>
-    <t>amarela</t>
-  </si>
-  <si>
-    <t>verde</t>
-  </si>
-  <si>
-    <t>O criadoe de One Piece chamasse Eiichiro Oda.</t>
-  </si>
-  <si>
-    <t>One Piece já acabou.</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>O maior tesouro é</t>
-  </si>
-  <si>
-    <t>atlantida</t>
-  </si>
-  <si>
-    <t>black pearl</t>
-  </si>
-  <si>
-    <t>amizade</t>
-  </si>
-  <si>
-    <t>one piece</t>
-  </si>
-  <si>
-    <t>O luffy gosta</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>carne</t>
-  </si>
-  <si>
-    <t>queijo</t>
-  </si>
-  <si>
-    <t>tesouro</t>
-  </si>
-  <si>
-    <t>nadar</t>
-  </si>
-  <si>
-    <t>O numero de tripolantes do navio de luffy é</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,21 +49,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,39 +388,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a banana é amarela</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>de que cor é a banana</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>roxa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>azul</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>amarela</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -462,87 +451,527 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>O criadoe de One Piece chamasse Eiichiro Oda.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>One Piece já acabou.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>O maior tesouro é</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>atlantida</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>black pearl</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>amizade</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>one piece</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>O luffy gosta</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>carne</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>queijo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>tesouro</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nadar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O numero de tripolantes do navio de luffy é</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Testes são importantes.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O 12º ano é o ultimo do secundario.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Não é presiso 12º ano para o secundário.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A comida da cantina é boa.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A escola é para:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lutar</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>comer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>aprender</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>dançar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No 12º ano temos:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>portugês</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ciencias da naturesa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>russo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>esgrima</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Temos exames no:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8º</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11º</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Na escola secundaria de pombal temos:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8º</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12º</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>todas as anteriores</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Anime é arte.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pokemon é um anime.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Animes são feitos em animaçao 3D.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Animes são só para crianças.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>One piece é o melhor anime.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>abselutamente</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sem duvida</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>todas as opçoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>O nome do protagonista de Attack of titans é</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Eren Yeager</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mikasa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Eruin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Doraemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Black Clover é um anime de:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gore</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>isekai</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fantasia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>romanse</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Qual destes é um personagem de SpyxFamily.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bond</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bell</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tanjiro</t>
+        </is>
       </c>
     </row>
   </sheetData>
